--- a/data/Coihueco.xlsx
+++ b/data/Coihueco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Esperanza de Cato</t>
+          <t>Modificación Masa de Animales Fundo San Guillermo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Sucesión Salvador Yanine Aba</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146336725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160196418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta fotovoltaica Agrícola Josefina</t>
+          <t>Parque Fotovoltaico Esperanza de Cato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOL DEL SUR 26 SpA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142742045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146336725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Nahueltoro</t>
+          <t>Planta fotovoltaica Agrícola Josefina</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora Huequecura Ltda</t>
+          <t>SOL DEL SUR 26 SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1300</v>
+        <v>9000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138938968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142742045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/11/2017</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135598179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138938968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06/11/2017</t>
+          <t>29/11/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132848602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135598179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejora del Desempeño Ambiental y Ampliación Plantel de Cerdos Santa Josefina</t>
+          <t>Extracción y Procesamiento de Áridos Nahueltoro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agricola Veneto Ltda.</t>
+          <t>Constructora Huequecura Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>06/11/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132649561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132848602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Línea de transmisión 1x220 kV Punilla - San Fabián</t>
+          <t>Mejora del Desempeño Ambiental y Ampliación Plantel de Cerdos Santa Josefina</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Agricola Veneto Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9200</v>
+        <v>1100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/06/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132497539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132649561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Regularización y Ampliación Plantel de Cerdos Santa Josefina"</t>
+          <t>Línea de transmisión 1x220 kV Punilla - San Fabián</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Agricola Veneto Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1100</v>
+        <v>9200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>29/06/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132195734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132497539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 kV Punilla - San Fabián</t>
+          <t>"Regularización y Ampliación Plantel de Cerdos Santa Josefina"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Astaldi Concessioni S.R.L. Agencia en Chile</t>
+          <t>Agricola Veneto Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9200</v>
+        <v>1100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132085162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132195734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Santa Josefina</t>
+          <t>Línea de Transmisión 1x220 kV Punilla - San Fabián</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Agricola Veneto Ltda.</t>
+          <t>Astaldi Concessioni S.R.L. Agencia en Chile</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1800</v>
+        <v>9200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130668290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132085162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/07/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130634298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130668290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo Ñublense, Paso Alejo, Comuna de Coihueco</t>
+          <t>Plantel de Cerdos Santa Josefina</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DEPORTIVO ÑUBLENSE S.A.D.P.</t>
+          <t>Agricola Veneto Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1800</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/07/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130124441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130634298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Regularización Ejecución Planta de Tratamiento de Aguas Servidas y Obras en Parque Recreativo Chillán, Comuna de Coihueco</t>
+          <t>Equipamiento Deportivo Ñublense, Paso Alejo, Comuna de Coihueco</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Héroes</t>
+          <t>DEPORTIVO ÑUBLENSE S.A.D.P.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04/09/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129763370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130124441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Subdivisión simple de Loteo Farellones Predio El Plan</t>
+          <t>Regularización Ejecución Planta de Tratamiento de Aguas Servidas y Obras en Parque Recreativo Chillán, Comuna de Coihueco</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Suc. Raul Vallejos y otros</t>
+          <t>Caja de Compensación de Asignación Familiar Los Héroes</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/08/2014</t>
+          <t>04/09/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129763370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,40 +1096,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Subdivisión simple de Loteo Farellones Predio El Plan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>Suc. Raul Vallejos y otros</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>18/08/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,40 +1144,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"PLANTEL DE CERDOS SANTA JOSEFINA" DE AGRÍCOLA Y FRUTÍCOLA VENETO LTDA.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agricola Veneto Ltda.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1800</v>
+        <v>140400</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/04/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"PLANTEL DE CERDOS SANTA JOSEFINA" DE AGRÍCOLA Y FRUTÍCOLA VENETO LTDA.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agricola Veneto Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>12/04/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento y Disposición de Purines, Plantel Engorda Cerdos Fundo San Guillermo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sucesión Salvador Yanine Aba</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Comuna de Coihueco (e-seia)</t>
+          <t>Modificación Sistema Tratamiento y Disposición de Purines, Plantel Engorda Cerdos Fundo San Guillermo (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coihueco</t>
+          <t>Sucesión Salvador Yanine Aba</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,26 +1432,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Plan de Cierre Vertedero Comuna de Coihueco (e-seia)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Ilustre Municipalidad de Coihueco</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>40000</v>
+        <v>345</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>29/08/2008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1461,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,30 +1480,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Industria de Destilación de Alcohol Etílico CVA DEL SUR S.A. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CVA del Sur S.A.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>195</v>
+        <v>40000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2636871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Industria de Destilación de Alcohol Etílico CVA DEL SUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1534,30 +1534,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>CVA del Sur S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2636871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Subdivisión simple de predio Los Pellines en Zpna Cordillerana de Provincia de Ñuble con Declaración de prohibición de corta de árboles (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1582,30 +1582,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE INVERSIONES HANTSCH Y CIA LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Subdivisión simple de predio Los Pellines en Zpna Cordillerana de Provincia de Ñuble con Declaración de prohibición de corta de árboles (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,30 +1630,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>SOCIEDAD DE INVERSIONES HANTSCH Y CIA LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1683,15 +1683,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1731,25 +1731,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,25 +1779,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,17 +1835,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,40 +1860,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Central Ñuble de Pasada</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Ñuble SpA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>140000</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/05/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1461391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,30 +1908,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Central Ñuble de Pasada</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Hidroeléctrica Ñuble SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>140000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>23/05/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1461391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,25 +1971,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,17 +2027,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Núcleo Genético Coihueco, VIII Región Núcleo genético Cerdos (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2110,30 +2110,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Agrícola y Ganadera Chillán Viejo Ltda</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4556</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1107188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Núcleo Genético Coihueco, VIII Región (e-seia)</t>
+          <t>Plantel de Cerdos Núcleo Genético Coihueco, VIII Región Núcleo genético Cerdos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,21 +2167,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4480</v>
+        <v>4556</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/10/2005</t>
+          <t>14/11/2005</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1107188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plantel de Engorda de Cerdos, Fundo San Guillermo (e-seia)</t>
+          <t>Plantel de Cerdos Núcleo Genético Coihueco, VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,25 +2211,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sucesión Salvador Yanine Aba</t>
+          <t>Agrícola y Ganadera Chillán Viejo Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>4480</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>03/10/2005</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/02/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2315,17 +2315,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>22/02/2005</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Coihueco (e-seia)</t>
+          <t>Plantel de Engorda de Cerdos, Fundo San Guillermo (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2355,25 +2355,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sucesión Salvador Yanine Aba</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1620</v>
+        <v>500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/07/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=410318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embalse Punilla VIII Región del Bio Bio</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Coihueco (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2403,15 +2403,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>149800</v>
+        <v>1620</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17/05/2004</t>
+          <t>27/07/2004</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=410318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CONSTRUCCION DE 16 PABELLONES E INFRAESTRUCTURA PARA ENGORDA DE CERDOS (e-seia)</t>
+          <t>Embalse Punilla VIII Región del Bio Bio</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2451,25 +2451,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sucesión Salvador Yanine Aba</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>149800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/12/2003</t>
+          <t>17/05/2004</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2503,21 +2503,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/11/2003</t>
+          <t>17/12/2003</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PISCICULTURA LOS SALTOS DEL CHILLAN COIHUECO, PROVINCIA DE ÑUBLE (e-seia)</t>
+          <t>CONSTRUCCION DE 16 PABELLONES E INFRAESTRUCTURA PARA ENGORDA DE CERDOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2547,25 +2547,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE INVERSIONES HANTSCH Y CIA LTDA</t>
+          <t>Sucesión Salvador Yanine Aba</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>26/11/2003</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicio de Agua Potable Rural Localidad de La Viñita Comuna de Coihueco</t>
+          <t>PISCICULTURA LOS SALTOS DEL CHILLAN COIHUECO, PROVINCIA DE ÑUBLE (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2595,25 +2595,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Dirección de Obras Hidráulicas, VIII Región</t>
+          <t>SOCIEDAD DE INVERSIONES HANTSCH Y CIA LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/10/2002</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicio de Agua Potable Rural Localidad de Minas del Prado Comuna de Coihueco</t>
+          <t>Mejoramiento Servicio de Agua Potable Rural Localidad de La Viñita Comuna de Coihueco</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Liceo B-13 Claudio Arrau León Coihueco</t>
+          <t>Mejoramiento Servicio de Agua Potable Rural Localidad de Minas del Prado Comuna de Coihueco</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2691,25 +2691,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Coihueco</t>
+          <t>Dirección de Obras Hidráulicas, VIII Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>590</v>
+        <v>166</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>08/10/2002</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Construcción de Guardería y Baños Exteriores del Santuario de la Naturaleza Los Huemules de Niblinto</t>
+          <t>Ampliación Liceo B-13 Claudio Arrau León Coihueco</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2739,15 +2739,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Comité Nacional Pro Defensa de la Fauna y Flora (CODEFF)</t>
+          <t>I. Municipalidad de Coihueco</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/03/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Tratamiento de Aguas Servidas Localidad de Minas del Prado Comuna de Coihueco</t>
+          <t>Construcción de Guardería y Baños Exteriores del Santuario de la Naturaleza Los Huemules de Niblinto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,15 +2787,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Coihueco</t>
+          <t>Comité Nacional Pro Defensa de la Fauna y Flora (CODEFF)</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/08/2000</t>
+          <t>19/03/2001</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Tratamiento de Aguas Servidas Localidad de La Viñita Comuna de Coihueco</t>
+          <t>Construcción Alcantarillado y Tratamiento de Aguas Servidas Localidad de Minas del Prado Comuna de Coihueco</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de El Embalse</t>
+          <t>Construcción Alcantarillado y Tratamiento de Aguas Servidas Localidad de La Viñita Comuna de Coihueco</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2883,15 +2883,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>I. Municipalidad de Coihueco</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/11/1999</t>
+          <t>10/08/2000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Diseño de Ampliación y Normalización Sistema de Agua Potable Rural Cancha de Parra</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de El Embalse</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2931,15 +2931,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coihueco</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/03/1999</t>
+          <t>16/11/1999</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado Coihueco</t>
+          <t>Diseño de Ampliación y Normalización Sistema de Agua Potable Rural Cancha de Parra</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2979,15 +2979,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Ilustre Municipalidad de Coihueco</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>04/03/1999</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sistema de Servicios de Agua Potable Rural de Tres Esquinas de Cato</t>
+          <t>Construcción de Sondajes con Caudal Garantizado Coihueco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3027,15 +3027,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/10/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,43 +3060,91 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Sistema de Servicios de Agua Potable Rural de Tres Esquinas de Cato</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>470</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>22/10/1998</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Coihueco</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F58" t="n">
         <v>850000</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Coihueco</t>
         </is>

--- a/data/Coihueco.xlsx
+++ b/data/Coihueco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
